--- a/Altium Files/Pinger Shopping List.xlsx
+++ b/Altium Files/Pinger Shopping List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migoy\OneDrive - University of Victoria\Miguel's Folder\AUVIC\Pinger\Altium Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="242" documentId="8_{AA8354D1-E53D-4E05-BB45-F3CA2A67335D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{88867B56-A865-4078-8208-FA2A27DEFB3D}"/>
+  <xr:revisionPtr revIDLastSave="247" documentId="8_{AA8354D1-E53D-4E05-BB45-F3CA2A67335D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D7F39374-4145-40CE-8FC1-058099A5875B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="23040" windowHeight="9048" xr2:uid="{D6EE9F1C-5539-4DF5-9CCB-8AAEFF5B4D1F}"/>
+    <workbookView xWindow="0" yWindow="6000" windowWidth="23040" windowHeight="9045" xr2:uid="{D6EE9F1C-5539-4DF5-9CCB-8AAEFF5B4D1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>490-9659-1-ND</t>
   </si>
@@ -215,15 +215,6 @@
     <t># ordering</t>
   </si>
   <si>
-    <t>399-4521-1-ND</t>
-  </si>
-  <si>
-    <t>399-4491-1-ND</t>
-  </si>
-  <si>
-    <t>1N4148FSCT-ND</t>
-  </si>
-  <si>
     <t>CF14JT33K0CT-ND</t>
   </si>
   <si>
@@ -251,21 +242,12 @@
     <t>CF14JT100RCT-ND</t>
   </si>
   <si>
-    <t>296-35739-5-ND</t>
-  </si>
-  <si>
     <t>ATMEGA48A-PU-ND</t>
   </si>
   <si>
-    <t>PN2222TACT-ND</t>
-  </si>
-  <si>
     <t>A135698-ND</t>
   </si>
   <si>
-    <t>296-9542-5-ND</t>
-  </si>
-  <si>
     <t>497-1443-5-ND</t>
   </si>
   <si>
@@ -275,7 +257,7 @@
     <t>887-2015-ND</t>
   </si>
   <si>
-    <t>Total Cost: $40.26</t>
+    <t>Total Cost: $28.69</t>
   </si>
 </sst>
 </file>
@@ -325,13 +307,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,10 +634,10 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
@@ -1132,7 +1116,7 @@
         <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1144,164 +1128,140 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="4">
-        <v>2</v>
+      <c r="C33" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="4">
-        <v>3</v>
+      <c r="C34" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="4">
-        <v>10</v>
+      <c r="A35" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="4">
+      <c r="A36" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="7">
         <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="4">
-        <v>5</v>
+      <c r="C45" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="4">
-        <v>3</v>
-      </c>
+      <c r="A46" s="5"/>
+      <c r="C46" s="4"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="4">
-        <v>3</v>
-      </c>
+      <c r="A47" s="5"/>
+      <c r="C47" s="4"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="4">
-        <v>3</v>
-      </c>
+      <c r="A48" s="5"/>
+      <c r="C48" s="4"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="4">
-        <v>3</v>
-      </c>
+      <c r="A49" s="5"/>
+      <c r="C49" s="4"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="4">
-        <v>50</v>
-      </c>
+      <c r="A50" s="5"/>
+      <c r="C50" s="4"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="4">
-        <v>3</v>
-      </c>
+      <c r="A51" s="5"/>
+      <c r="C51" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
